--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>word</t>
   </si>
@@ -97,28 +97,10 @@
     <t>ʃɪp</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>θɪŋ</t>
-  </si>
-  <si>
-    <t>pandemic</t>
-  </si>
-  <si>
-    <t>pænˈdɛmɪk</t>
-  </si>
-  <si>
-    <t>hey</t>
-  </si>
-  <si>
-    <t>heɪ</t>
-  </si>
-  <si>
-    <t>honeymoon</t>
-  </si>
-  <si>
-    <t>ˈhʌn.iˌmuːn</t>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>həˈləʊ</t>
   </si>
 </sst>
 </file>
@@ -450,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,121 +776,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,31 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81FCA2C-748B-46D6-9DD2-9C39104C6F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>ipa</t>
+  </si>
+  <si>
+    <t>də (12)</t>
+  </si>
+  <si>
+    <t>a (1)</t>
+  </si>
+  <si>
+    <t>b (2)</t>
+  </si>
+  <si>
+    <t>c (-3)</t>
+  </si>
+  <si>
+    <t>d (4)</t>
+  </si>
+  <si>
+    <t>ə (3)</t>
+  </si>
+  <si>
+    <t>ɪ (-1)</t>
+  </si>
+  <si>
+    <t>ð (0)</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>ladder</t>
+  </si>
+  <si>
+    <t>ˈladə</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>ˈfaɪ.ə</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>wɜːld</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>ˈmʌðəɹ</t>
+  </si>
+  <si>
+    <t>olive</t>
+  </si>
+  <si>
+    <t>ˈɒl.ɪv</t>
+  </si>
+  <si>
+    <t>yodel</t>
+  </si>
+  <si>
+    <t>ˈjəʊ.dəl</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>ˈtaɪmɚ</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>ʃɪp</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>həˈləʊ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,14 +144,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -116,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,27 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,24 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,15 +431,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\PSYC_2700\PhonemeTranslator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81FCA2C-748B-46D6-9DD2-9C39104C6F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79781F93-34D4-4225-BA1D-A5B649C4A300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,6 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,7 +393,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K10" sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,31 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\PSYC_2700\PhonemeTranslator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5D76F3-9B58-4776-8CD2-26F2F03B349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>ipa</t>
+  </si>
+  <si>
+    <t>də (12)</t>
+  </si>
+  <si>
+    <t>a (1)</t>
+  </si>
+  <si>
+    <t>b (2)</t>
+  </si>
+  <si>
+    <t>c (-3)</t>
+  </si>
+  <si>
+    <t>d (4)</t>
+  </si>
+  <si>
+    <t>ə (3)</t>
+  </si>
+  <si>
+    <t>ɪ (-1)</t>
+  </si>
+  <si>
+    <t>ð (0)</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>ladder</t>
+  </si>
+  <si>
+    <t>ˈlædər</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>faɪər</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>wərld</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>ˈməðər</t>
+  </si>
+  <si>
+    <t>olive</t>
+  </si>
+  <si>
+    <t>ˈɑlɪv</t>
+  </si>
+  <si>
+    <t>yodel</t>
+  </si>
+  <si>
+    <t>ˈjoʊdəl</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>ˈtaɪmər</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>ʃɪp</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>hɛˈloʊ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,14 +144,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -116,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,27 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,24 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,15 +431,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>